--- a/docs/project-desk-edb4faedb8d7b8bdb6530432188538ad.xlsx
+++ b/docs/project-desk-edb4faedb8d7b8bdb6530432188538ad.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\TKC\App\Math\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Program Files (x86)\projects\react\pwa-app\docs\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{829CA8A6-90C6-438B-B191-DC167ACEC4E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3AA557BE-6FAF-45BA-8479-603D08C16270}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -395,13 +395,20 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <charset val="178"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -510,63 +517,69 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="21">
+  <cellXfs count="23">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="4" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -850,8 +863,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:N10"/>
   <sheetViews>
-    <sheetView rightToLeft="1" tabSelected="1" zoomScale="80" zoomScaleNormal="80" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
+    <sheetView rightToLeft="1" tabSelected="1" topLeftCell="F1" zoomScale="190" zoomScaleNormal="190" workbookViewId="0">
+      <selection activeCell="J2" sqref="J2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -916,34 +929,34 @@
       </c>
     </row>
     <row r="2" spans="1:14" ht="29.25" customHeight="1">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="21" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="C2" s="2" t="s">
+      <c r="C2" s="21" t="s">
         <v>19</v>
       </c>
-      <c r="D2" s="3" t="s">
+      <c r="D2" s="22" t="s">
         <v>20</v>
       </c>
-      <c r="E2" s="3" t="s">
+      <c r="E2" s="22" t="s">
         <v>21</v>
       </c>
-      <c r="F2" s="3" t="s">
+      <c r="F2" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="G2" s="3" t="s">
+      <c r="G2" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="H2" s="2" t="s">
+      <c r="H2" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="I2" s="3" t="s">
+      <c r="I2" s="22" t="s">
         <v>24</v>
       </c>
-      <c r="J2" s="2" t="s">
+      <c r="J2" s="21" t="s">
         <v>25</v>
       </c>
       <c r="K2" s="2" t="s">
